--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72144.89231157184</v>
+        <v>13976989.2777341</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72144.89231157184</v>
+        <v>13976989.2777341</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74990.46130534164</v>
+        <v>8980230.48821429</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74990.46130534164</v>
+        <v>8980230.48821429</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495072471.535922</v>
+        <v>53643098.82148005</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14289.46162737635</v>
+        <v>1355180.280535462</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26915.39318827018</v>
+        <v>2455745.9773669</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39516.91759455681</v>
+        <v>3556311.674198339</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51862.27721393645</v>
+        <v>4607077.084105319</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64131.78595678359</v>
+        <v>5705295.497652199</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76333.67108952599</v>
+        <v>6796345.808527972</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88535.83331920147</v>
+        <v>7888078.624011008</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100737.8106432166</v>
+        <v>8979681.366766773</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114613.3297417252</v>
+        <v>9516686.383861873</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127765.4353156664</v>
+        <v>10604319.82305894</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140365.5584594019</v>
+        <v>11607837.31644366</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152965.6816031374</v>
+        <v>12611354.80982838</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165565.8047468729</v>
+        <v>13614872.30321311</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178709.7895763111</v>
+        <v>14510612.05423015</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193979.2498611938</v>
+        <v>15059094.67624826</v>
       </c>
     </row>
   </sheetData>
